--- a/virial_CF3I.xlsx
+++ b/virial_CF3I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13222\Documents\GitHub\Virial-curvefit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E5C446-B183-4127-A8F0-53B1CCFB675F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A34DACB-6610-46EB-9955-79900469B8A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="2640" windowWidth="14265" windowHeight="11385" xr2:uid="{970A6337-576E-4F84-8575-0C1B4BEB9BF1}"/>
+    <workbookView xWindow="5460" yWindow="2475" windowWidth="14265" windowHeight="11385" xr2:uid="{970A6337-576E-4F84-8575-0C1B4BEB9BF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
